--- a/misc/DPD Add Words.xlsx
+++ b/misc/DPD Add Words.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Form responses 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Form responses 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t xml:space="preserve">Digital Pāḷi Dictionary : Add Words</t>
   </si>
@@ -470,6 +470,9 @@
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">adj: adjective</t>
   </si>
   <si>
     <t xml:space="preserve">aor: aorist verb</t>
@@ -693,61 +696,57 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -762,33 +761,139 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="58.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="1" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
@@ -817,37 +922,37 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -869,17 +974,17 @@
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" s="8" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="54.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -914,237 +1019,237 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1166,18 +1271,18 @@
       <c r="H17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1199,41 +1304,41 @@
       <c r="H18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="12" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3"/>
@@ -1241,20 +1346,20 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3"/>
@@ -1275,7 +1380,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3"/>
@@ -1296,7 +1401,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3"/>
@@ -1317,7 +1422,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3"/>
@@ -1338,7 +1443,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3"/>
@@ -1359,7 +1464,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="3"/>
@@ -1380,7 +1485,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="3"/>
@@ -1401,7 +1506,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3"/>
@@ -1422,7 +1527,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3"/>
@@ -1443,7 +1548,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
@@ -1464,7 +1569,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="3"/>
@@ -1485,7 +1590,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="3"/>
@@ -1506,7 +1611,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="3"/>
@@ -1527,7 +1632,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="3"/>
@@ -1548,7 +1653,7 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="3"/>
@@ -1569,7 +1674,7 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="3"/>
@@ -1590,7 +1695,7 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="3"/>
@@ -1611,7 +1716,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="3"/>
@@ -1632,7 +1737,7 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="3"/>
@@ -1653,7 +1758,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="3"/>
@@ -1674,7 +1779,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="3"/>
@@ -1695,7 +1800,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="3"/>
@@ -1716,7 +1821,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="3"/>
@@ -1737,7 +1842,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="3"/>
@@ -1758,7 +1863,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="3"/>
@@ -1779,7 +1884,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="3"/>
@@ -1800,7 +1905,9 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2994,6 +3101,25 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
